--- a/mallar/Protokoll/Showklass_Protokoll och resutatfil.xlsx
+++ b/mallar/Protokoll/Showklass_Protokoll och resutatfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937E0151-FDD6-4CCE-9772-A9B6D5DE33CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE508B6-AEBD-4194-A2E1-1DBA9F4BF4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61500" yWindow="9195" windowWidth="16200" windowHeight="9405" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="780" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="bord" localSheetId="2">'Showklass par'!$L$3</definedName>
     <definedName name="datum" localSheetId="2">'Showklass par'!$C$4</definedName>
     <definedName name="domare" localSheetId="2">'Showklass par'!$C$35</definedName>
+    <definedName name="firstvaulter" localSheetId="2">'Showklass par'!$J$7</definedName>
     <definedName name="result" localSheetId="2">'Showklass par'!$L$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -233,10 +236,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -744,16 +747,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -761,7 +764,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -811,9 +814,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -836,8 +836,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,12 +856,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -966,6 +966,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4562,12 +4566,12 @@
       <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="40"/>
+      <c r="L2" s="39"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -4576,12 +4580,12 @@
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="I3" s="39"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="40"/>
+      <c r="L3" s="39"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -4598,13 +4602,13 @@
       <c r="E4" s="7"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="41"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="40"/>
+      <c r="L4" s="39"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -4622,12 +4626,12 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="42"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="40"/>
+      <c r="L5" s="39"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -4649,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="36"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="9"/>
       <c r="N6"/>
       <c r="O6"/>
@@ -4671,8 +4675,8 @@
         <v>3</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
@@ -4693,8 +4697,8 @@
         <v>4</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
@@ -4711,13 +4715,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="37"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
@@ -4728,19 +4732,19 @@
       <c r="A10" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="37"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
@@ -4762,8 +4766,8 @@
         <v>23</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -4801,23 +4805,23 @@
       <c r="Q13"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="46" t="s">
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="42" t="s">
         <v>40</v>
       </c>
       <c r="M14"/>
@@ -4828,21 +4832,21 @@
     </row>
     <row r="15" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="74" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="53">
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="52">
         <f>(I15+J15+K15)/3</f>
         <v>0</v>
       </c>
@@ -4854,19 +4858,19 @@
     </row>
     <row r="16" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="75" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="54">
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="53">
         <f>(I16+J16+K16)/3</f>
         <v>0</v>
       </c>
@@ -4877,19 +4881,19 @@
       <c r="Q16"/>
     </row>
     <row r="17" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="76" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="55">
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="54">
         <f t="shared" ref="L17:L22" si="0">(I17+J17+K17)/3</f>
         <v>0</v>
       </c>
@@ -4900,21 +4904,21 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="74" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="53">
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4925,19 +4929,19 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="83" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="56">
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4948,21 +4952,21 @@
       <c r="Q19"/>
     </row>
     <row r="20" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="84" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="57">
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4973,19 +4977,19 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="75" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="54">
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4996,19 +5000,19 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="75" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="54">
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5019,19 +5023,19 @@
       <c r="Q22"/>
     </row>
     <row r="23" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="83" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="56">
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="55">
         <f>(I23+J23+K23)/3</f>
         <v>0</v>
       </c>
@@ -5062,7 +5066,7 @@
       <c r="K25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="44">
         <f>SUM(L15:L23)</f>
         <v>0</v>
       </c>
@@ -5085,7 +5089,7 @@
       <c r="K26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="43">
         <f>L25/9</f>
         <v>0</v>
       </c>
@@ -5108,7 +5112,7 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="52"/>
+      <c r="L27" s="51"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -5116,17 +5120,17 @@
       <c r="Q27"/>
     </row>
     <row r="28" spans="2:17" ht="29.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="61"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -5134,17 +5138,17 @@
       <c r="Q28"/>
     </row>
     <row r="29" spans="2:17" ht="27.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -5152,17 +5156,17 @@
       <c r="Q29"/>
     </row>
     <row r="30" spans="2:17" ht="23.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="66"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -5191,11 +5195,11 @@
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="15"/>
       <c r="I32" s="2" t="s">
         <v>13</v>
@@ -5213,11 +5217,11 @@
       <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
       <c r="I33" s="2" t="s">
         <v>13</v>
       </c>
@@ -5238,7 +5242,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="32"/>
       <c r="I34" s="2" t="s">
         <v>13</v>
       </c>
@@ -5403,7 +5407,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5429,22 +5433,22 @@
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="40"/>
+      <c r="L2" s="39"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="I3" s="39"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="40"/>
+      <c r="L3" s="39"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5452,18 +5456,18 @@
         <v>8</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="41"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="40"/>
+      <c r="L4" s="39"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5471,18 +5475,18 @@
         <v>9</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="42"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="40"/>
+      <c r="L5" s="39"/>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5490,11 +5494,11 @@
         <v>10</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="3"/>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -5508,18 +5512,18 @@
         <v>16</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -5529,13 +5533,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="31" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="9"/>
@@ -5546,13 +5550,13 @@
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="37"/>
+      <c r="H9" s="36"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="37"/>
+      <c r="H10" s="36"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -5589,44 +5593,44 @@
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="20.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="46" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="42" t="s">
         <v>40</v>
       </c>
       <c r="M13"/>
     </row>
     <row r="14" spans="1:15" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14"/>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="74" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="53">
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="52">
         <f>(I14+J14+K14)/3</f>
         <v>0</v>
       </c>
@@ -5634,156 +5638,156 @@
     </row>
     <row r="15" spans="1:15" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="75" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="54">
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="53">
         <f>(I15+J15+K15)/3</f>
         <v>0</v>
       </c>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:15" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="76" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="55">
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="54">
         <f t="shared" ref="L16:L21" si="0">(I16+J16+K16)/3</f>
         <v>0</v>
       </c>
       <c r="M16"/>
     </row>
     <row r="17" spans="2:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="74" t="s">
+      <c r="C17" s="68"/>
+      <c r="D17" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="53">
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17"/>
     </row>
     <row r="18" spans="2:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="83" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="56">
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18"/>
     </row>
     <row r="19" spans="2:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="84" t="s">
+      <c r="C19" s="81"/>
+      <c r="D19" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="57">
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19"/>
     </row>
     <row r="20" spans="2:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="75" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="54">
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M20"/>
     </row>
     <row r="21" spans="2:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="75" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="54">
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21"/>
     </row>
     <row r="22" spans="2:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="83" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="56">
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="55">
         <f>(I22+J22+K22)/3</f>
         <v>0</v>
       </c>
@@ -5806,7 +5810,7 @@
       <c r="K24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="44">
         <f>SUM(L14:L22)</f>
         <v>0</v>
       </c>
@@ -5825,7 +5829,7 @@
       <c r="K25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="43">
         <f>L24/9</f>
         <v>0</v>
       </c>
@@ -5862,93 +5866,93 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="87"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="90"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="89"/>
     </row>
     <row r="30" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
     </row>
     <row r="31" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="90"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
     </row>
     <row r="32" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="90"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="91"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="93"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="92"/>
     </row>
     <row r="34" spans="2:13" ht="11.55" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="15"/>
       <c r="I35" s="2" t="s">
         <v>13</v>
@@ -5960,11 +5964,11 @@
     </row>
     <row r="36" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
       <c r="I36" s="2" t="s">
         <v>13</v>
       </c>
@@ -5975,11 +5979,11 @@
     </row>
     <row r="37" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
       <c r="I37" s="2" t="s">
         <v>13</v>
       </c>
@@ -5989,7 +5993,12 @@
       <c r="M37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="B28:L33"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:C16"/>
@@ -6006,7 +6015,7 @@
     <mergeCell ref="D22:H22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="7.874015748031496E-2"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SHOWKLASS PAR</oddHeader>
   </headerFooter>
@@ -6030,17 +6039,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6088,17 +6097,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>51</v>
       </c>
     </row>

--- a/mallar/Protokoll/Showklass_Protokoll och resutatfil.xlsx
+++ b/mallar/Protokoll/Showklass_Protokoll och resutatfil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE508B6-AEBD-4194-A2E1-1DBA9F4BF4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB83559B-524B-4872-A6DB-79A2DD05C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="780" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <definedName name="bord" localSheetId="1">'Showklass par'!$L$3</definedName>
     <definedName name="bord" localSheetId="2">'Showklass par'!$L$3</definedName>
     <definedName name="datum" localSheetId="2">'Showklass par'!$C$4</definedName>
-    <definedName name="domare" localSheetId="2">'Showklass par'!$C$35</definedName>
+    <definedName name="domare" localSheetId="2">'Showklass par'!$C$37</definedName>
     <definedName name="firstvaulter" localSheetId="2">'Showklass par'!$J$7</definedName>
-    <definedName name="result" localSheetId="2">'Showklass par'!$L$25</definedName>
+    <definedName name="id">'Showklass par'!$M$42</definedName>
+    <definedName name="result" localSheetId="2">'Showklass par'!$L$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -756,48 +757,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -806,33 +803,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,13 +840,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -890,86 +916,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4048,7 +4032,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Information"/>
@@ -4441,84 +4425,84 @@
     <col min="1" max="17" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="20.65" x14ac:dyDescent="0.6">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+    <row r="2" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:5" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
+    <row r="4" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+    <row r="6" spans="1:5" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:5" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:5" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" s="24" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" s="20" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4563,15 +4547,15 @@
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="39"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="27"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -4579,13 +4563,13 @@
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="10" t="s">
+      <c r="A3" s="3"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="39"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="27"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -4597,18 +4581,18 @@
         <v>8</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="10" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="39"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="27"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -4616,22 +4600,21 @@
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="39"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="27"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -4639,44 +4622,42 @@
       <c r="Q5"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="29" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="8"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="11" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
@@ -4687,18 +4668,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="12" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="I8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
@@ -4715,13 +4695,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9"/>
+      <c r="I9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
@@ -4729,22 +4709,22 @@
       <c r="Q9"/>
     </row>
     <row r="10" spans="1:17" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="12" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10"/>
+      <c r="I10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
@@ -4752,22 +4732,21 @@
       <c r="Q10"/>
     </row>
     <row r="11" spans="1:17" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="12" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -4778,7 +4757,6 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="15"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -4786,42 +4764,31 @@
       <c r="Q12"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="45" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="29" t="s">
         <v>40</v>
       </c>
       <c r="M14"/>
@@ -4832,21 +4799,21 @@
     </row>
     <row r="15" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="73" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="52">
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="39">
         <f>(I15+J15+K15)/3</f>
         <v>0</v>
       </c>
@@ -4858,19 +4825,19 @@
     </row>
     <row r="16" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="74" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="53">
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="40">
         <f>(I16+J16+K16)/3</f>
         <v>0</v>
       </c>
@@ -4881,19 +4848,19 @@
       <c r="Q16"/>
     </row>
     <row r="17" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="75" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="54">
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="41">
         <f t="shared" ref="L17:L22" si="0">(I17+J17+K17)/3</f>
         <v>0</v>
       </c>
@@ -4904,21 +4871,21 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="73" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="52">
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4929,19 +4896,19 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="82" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="55">
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4952,21 +4919,21 @@
       <c r="Q19"/>
     </row>
     <row r="20" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="83" t="s">
+      <c r="C20" s="52"/>
+      <c r="D20" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="56">
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4977,19 +4944,19 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="74" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="53">
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5000,19 +4967,19 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="74" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="53">
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5023,19 +4990,19 @@
       <c r="Q22"/>
     </row>
     <row r="23" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="82" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="55">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="42">
         <f>(I23+J23+K23)/3</f>
         <v>0</v>
       </c>
@@ -5063,10 +5030,10 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="31">
         <f>SUM(L15:L23)</f>
         <v>0</v>
       </c>
@@ -5086,10 +5053,10 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="30">
         <f>L25/9</f>
         <v>0</v>
       </c>
@@ -5100,7 +5067,7 @@
       <c r="Q26"/>
     </row>
     <row r="27" spans="2:17" ht="22.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C27"/>
@@ -5111,8 +5078,8 @@
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="51"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="38"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
@@ -5120,17 +5087,17 @@
       <c r="Q27"/>
     </row>
     <row r="28" spans="2:17" ht="29.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="60"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -5138,17 +5105,17 @@
       <c r="Q28"/>
     </row>
     <row r="29" spans="2:17" ht="27.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="63"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -5156,17 +5123,17 @@
       <c r="Q29"/>
     </row>
     <row r="30" spans="2:17" ht="23.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -5174,18 +5141,11 @@
       <c r="Q30"/>
     </row>
     <row r="31" spans="2:17" ht="12.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="5"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="4"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
@@ -5195,12 +5155,11 @@
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
       <c r="I32" s="2" t="s">
         <v>13</v>
       </c>
@@ -5217,11 +5176,11 @@
       <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
       <c r="I33" s="2" t="s">
         <v>13</v>
       </c>
@@ -5238,11 +5197,11 @@
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="32"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
       <c r="I34" s="2" t="s">
         <v>13</v>
       </c>
@@ -5256,37 +5215,30 @@
       <c r="Q34"/>
     </row>
     <row r="35" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="5"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="4"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
     </row>
     <row r="36" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
@@ -5372,6 +5324,11 @@
     <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B28:L30"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="B20:C23"/>
@@ -5381,11 +5338,6 @@
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B28:L30"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5404,10 +5356,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5430,25 +5382,25 @@
   <sheetData>
     <row r="1" spans="1:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="39"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="27"/>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="10" t="s">
+      <c r="A3" s="3"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="39"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="27"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5456,50 +5408,48 @@
         <v>8</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="10" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="39"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="27"/>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="39"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="27"/>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
@@ -5508,22 +5458,21 @@
       <c r="L6"/>
     </row>
     <row r="7" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="33" t="s">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="I7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -5533,457 +5482,424 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="31" t="s">
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="I8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="36"/>
+      <c r="H9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="36"/>
+      <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+    <row r="11" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" ht="20.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="45" t="s">
+    <row r="12" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:15" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14"/>
-      <c r="B14" s="67" t="s">
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:15" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="B16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="73" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="52">
-        <f>(I14+J14+K14)/3</f>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="39">
+        <f>(I16+J16+K16)/3</f>
         <v>0</v>
       </c>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:15" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="74" t="s">
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="53">
-        <f>(I15+J15+K15)/3</f>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="40">
+        <f>(I17+J17+K17)/3</f>
         <v>0</v>
       </c>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:15" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="75" t="s">
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="54">
-        <f t="shared" ref="L16:L21" si="0">(I16+J16+K16)/3</f>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="41">
+        <f t="shared" ref="L18:L23" si="0">(I18+J18+K18)/3</f>
         <v>0</v>
       </c>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="2:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="67" t="s">
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="73" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="52">
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="2:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="82" t="s">
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="55">
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="2:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="80" t="s">
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="83" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="56">
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="2:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="74" t="s">
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="53">
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="2:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="74" t="s">
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="53">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="2:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="82" t="s">
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="55">
-        <f>(I22+J22+K22)/3</f>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="42">
+        <f>(I24+J24+K24)/3</f>
         <v>0</v>
       </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="2:13" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="44">
-        <f>SUM(L14:L22)</f>
-        <v>0</v>
-      </c>
       <c r="M24"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="43">
-        <f>L24/9</f>
-        <v>0</v>
-      </c>
+      <c r="K25"/>
+      <c r="L25"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="2:13" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26" s="22"/>
+    <row r="26" spans="1:13" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
+      <c r="K26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="31">
+        <f>SUM(L16:L24)</f>
+        <v>0</v>
+      </c>
       <c r="M26"/>
     </row>
-    <row r="27" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+    <row r="27" spans="1:13" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="30">
+        <f>L26/9</f>
+        <v>0</v>
+      </c>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="18"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
-    </row>
-    <row r="29" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89"/>
-    </row>
-    <row r="30" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
-    </row>
-    <row r="31" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-    </row>
-    <row r="32" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="89"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+    </row>
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="92"/>
-    </row>
-    <row r="34" spans="2:13" ht="11.55" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+    </row>
+    <row r="34" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79"/>
+    </row>
     <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="80"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="81"/>
+    </row>
+    <row r="36" spans="2:13" ht="11.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="I36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
       <c r="I37" s="2" t="s">
         <v>13</v>
       </c>
@@ -5992,30 +5908,61 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
+    <row r="38" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="I39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="42" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B30:L35"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B21:C24"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="B28:L33"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:C16"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="7.874015748031496E-2"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SHOWKLASS PAR</oddHeader>
   </headerFooter>
@@ -6039,37 +5986,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6097,40 +6044,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6145,6 +6092,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6210,25 +6175,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6243,27 +6213,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mallar/Protokoll/Showklass_Protokoll och resutatfil.xlsx
+++ b/mallar/Protokoll/Showklass_Protokoll och resutatfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB83559B-524B-4872-A6DB-79A2DD05C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BABA46A-D12B-4405-B268-D3EDED1C8714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="27" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>1)</t>
   </si>
@@ -847,48 +847,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,17 +874,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,6 +948,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4772,13 +4772,13 @@
       <c r="Q13"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="32" t="s">
         <v>36</v>
       </c>
@@ -4799,17 +4799,17 @@
     </row>
     <row r="15" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15"/>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="55" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
@@ -4825,15 +4825,15 @@
     </row>
     <row r="16" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="58" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
@@ -4848,15 +4848,15 @@
       <c r="Q16"/>
     </row>
     <row r="17" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
@@ -4871,17 +4871,17 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="55" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -4896,15 +4896,15 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="56" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -4919,17 +4919,17 @@
       <c r="Q19"/>
     </row>
     <row r="20" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="57" t="s">
+      <c r="C20" s="68"/>
+      <c r="D20" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
@@ -4944,15 +4944,15 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="58" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
@@ -4967,15 +4967,15 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="2:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="58" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
@@ -4990,15 +4990,15 @@
       <c r="Q22"/>
     </row>
     <row r="23" spans="2:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="56" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
@@ -5087,17 +5087,17 @@
       <c r="Q27"/>
     </row>
     <row r="28" spans="2:17" ht="29.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="61"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="47"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -5105,17 +5105,17 @@
       <c r="Q28"/>
     </row>
     <row r="29" spans="2:17" ht="27.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -5123,17 +5123,17 @@
       <c r="Q29"/>
     </row>
     <row r="30" spans="2:17" ht="23.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="53"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -5324,11 +5324,6 @@
     <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B28:L30"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="B20:C23"/>
@@ -5338,6 +5333,11 @@
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B28:L30"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5359,7 +5359,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5408,11 +5408,11 @@
         <v>8</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="25"/>
       <c r="I4" s="28"/>
       <c r="J4" s="9" t="s">
@@ -5427,11 +5427,11 @@
         <v>9</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
       <c r="I5" s="26"/>
       <c r="J5" s="9" t="s">
         <v>7</v>
@@ -5445,11 +5445,11 @@
         <v>16</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
@@ -5462,14 +5462,12 @@
         <v>10</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="I7" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -5482,14 +5480,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="I8" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -5499,32 +5495,36 @@
     </row>
     <row r="9" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10"/>
     </row>
     <row r="11" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
       <c r="M11"/>
     </row>
     <row r="12" spans="1:15" ht="17.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="M12"/>
     </row>
     <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5535,10 +5535,10 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5546,13 +5546,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:15" ht="20.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="32" t="s">
         <v>36</v>
       </c>
@@ -5569,17 +5569,17 @@
     </row>
     <row r="16" spans="1:15" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16"/>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="55" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
@@ -5591,15 +5591,15 @@
     </row>
     <row r="17" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="58" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
@@ -5610,15 +5610,15 @@
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
@@ -5629,17 +5629,17 @@
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="33"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
@@ -5650,15 +5650,15 @@
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="56" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
@@ -5669,17 +5669,17 @@
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="57" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
@@ -5690,15 +5690,15 @@
       <c r="M21"/>
     </row>
     <row r="22" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="58" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
@@ -5709,15 +5709,15 @@
       <c r="M22"/>
     </row>
     <row r="23" spans="1:13" ht="24.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="58" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
@@ -5728,15 +5728,15 @@
       <c r="M23"/>
     </row>
     <row r="24" spans="1:13" ht="24.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="56" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
@@ -5813,81 +5813,81 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="76"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
     </row>
     <row r="33" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="79"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="78"/>
     </row>
     <row r="35" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="80"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
       <c r="L35" s="81"/>
     </row>
     <row r="36" spans="2:13" ht="11.55" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5941,6 +5941,9 @@
     <row r="42" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="B30:L35"/>
@@ -5957,9 +5960,6 @@
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.15748031496062992" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="7.874015748031496E-2"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6101,15 +6101,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100570C130F412EDB4EBF3E80DF6A9149FD" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfaa3b10b9be17ef9f56bd19dc71004c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddb0c952b897a810c8a4e377cff6bff8" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6175,6 +6166,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64838F1D-7ECA-4F32-944F-43492487C498}">
   <ds:schemaRefs>
@@ -6191,14 +6191,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A00BD0D-8423-4FFE-92A4-D273D2078383}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6213,4 +6205,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28A807C1-6DB8-4C6A-8DCB-8B5F61EFE299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>